--- a/team_specific_matrix/Fresno St._A.xlsx
+++ b/team_specific_matrix/Fresno St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2200956937799043</v>
+        <v>0.2217573221757322</v>
       </c>
       <c r="C2">
-        <v>0.5071770334928229</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009569377990430622</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1531100478468899</v>
+        <v>0.1506276150627615</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1100478468899522</v>
+        <v>0.1129707112970711</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01769911504424779</v>
+        <v>0.015625</v>
       </c>
       <c r="C3">
-        <v>0.03539823008849557</v>
+        <v>0.0390625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03539823008849557</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6991150442477876</v>
+        <v>0.7109375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2123893805309734</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,16 +734,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01666666666666667</v>
+        <v>0.015</v>
       </c>
       <c r="E6">
-        <v>0.005555555555555556</v>
+        <v>0.005</v>
       </c>
       <c r="F6">
         <v>0.05</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1888888888888889</v>
+        <v>0.205</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01666666666666667</v>
+        <v>0.02</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1555555555555556</v>
+        <v>0.155</v>
       </c>
       <c r="R6">
-        <v>0.08888888888888889</v>
+        <v>0.08</v>
       </c>
       <c r="S6">
-        <v>0.4222222222222222</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06153846153846154</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007692307692307693</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06153846153846154</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1307692307692308</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01538461538461539</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1846153846153846</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S7">
-        <v>0.3846153846153846</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08753315649867374</v>
+        <v>0.08788598574821853</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01591511936339523</v>
+        <v>0.01900237529691211</v>
       </c>
       <c r="E8">
-        <v>0.002652519893899204</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="F8">
-        <v>0.05835543766578249</v>
+        <v>0.05700712589073634</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09018567639257294</v>
+        <v>0.09263657957244656</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02387267904509284</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2068965517241379</v>
+        <v>0.1995249406175772</v>
       </c>
       <c r="R8">
-        <v>0.07161803713527852</v>
+        <v>0.07363420427553444</v>
       </c>
       <c r="S8">
-        <v>0.4429708222811671</v>
+        <v>0.4418052256532066</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.13125</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00625</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F9">
-        <v>0.08749999999999999</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.11875</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01875</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.19375</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R9">
-        <v>0.08125</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="S9">
-        <v>0.3625</v>
+        <v>0.3709677419354839</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1013667425968109</v>
+        <v>0.1011787819253438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02733485193621868</v>
+        <v>0.02652259332023576</v>
       </c>
       <c r="E10">
-        <v>0.002277904328018223</v>
+        <v>0.001964636542239686</v>
       </c>
       <c r="F10">
-        <v>0.08428246013667426</v>
+        <v>0.08153241650294696</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08656036446469248</v>
+        <v>0.08447937131630648</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02277904328018223</v>
+        <v>0.02455795677799607</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2095671981776766</v>
+        <v>0.2170923379174853</v>
       </c>
       <c r="R10">
-        <v>0.08542141230068337</v>
+        <v>0.08742632612966601</v>
       </c>
       <c r="S10">
-        <v>0.3804100227790433</v>
+        <v>0.37524557956778</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1730769230769231</v>
+        <v>0.1798245614035088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1105769230769231</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="K11">
-        <v>0.25</v>
+        <v>0.2412280701754386</v>
       </c>
       <c r="L11">
-        <v>0.4519230769230769</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01442307692307692</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2395833333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.01041666666666667</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="L12">
-        <v>0.02083333333333333</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6756756756756757</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02702702702702703</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01840490797546012</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.196319018404908</v>
+        <v>0.1861702127659574</v>
       </c>
       <c r="I15">
-        <v>0.049079754601227</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="J15">
-        <v>0.3312883435582822</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="K15">
-        <v>0.0736196319018405</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01226993865030675</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03680981595092025</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2822085889570552</v>
+        <v>0.3031914893617021</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02362204724409449</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1889763779527559</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="I16">
-        <v>0.1102362204724409</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="J16">
-        <v>0.3700787401574803</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="K16">
-        <v>0.1102362204724409</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01574803149606299</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
-        <v>0.007874015748031496</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="O16">
-        <v>0.07086614173228346</v>
+        <v>0.07534246575342465</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1023622047244094</v>
+        <v>0.0958904109589041</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02915451895043732</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2011661807580175</v>
+        <v>0.2005012531328321</v>
       </c>
       <c r="I17">
-        <v>0.1137026239067055</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="J17">
-        <v>0.3819241982507289</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="K17">
-        <v>0.05539358600583091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01166180758017493</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="N17">
-        <v>0.008746355685131196</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="O17">
-        <v>0.05539358600583091</v>
+        <v>0.05513784461152882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1428571428571428</v>
+        <v>0.1353383458646616</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01324503311258278</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2052980132450331</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="I18">
-        <v>0.1324503311258278</v>
+        <v>0.1345029239766082</v>
       </c>
       <c r="J18">
-        <v>0.3576158940397351</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K18">
-        <v>0.08609271523178808</v>
+        <v>0.07602339181286549</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01986754966887417</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09271523178807947</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09271523178807947</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01213346814964611</v>
+        <v>0.01154529307282416</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2254802831142568</v>
+        <v>0.2211367673179396</v>
       </c>
       <c r="I19">
-        <v>0.08088978766430738</v>
+        <v>0.08081705150976909</v>
       </c>
       <c r="J19">
-        <v>0.3690596562184024</v>
+        <v>0.3774422735346359</v>
       </c>
       <c r="K19">
-        <v>0.09706774519716886</v>
+        <v>0.09502664298401421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02730030333670374</v>
+        <v>0.02841918294849023</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05864509605662285</v>
+        <v>0.05772646536412078</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1294236602628918</v>
+        <v>0.127886323268206</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fresno St._A.xlsx
+++ b/team_specific_matrix/Fresno St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2217573221757322</v>
+        <v>0.2175572519083969</v>
       </c>
       <c r="C2">
-        <v>0.502092050209205</v>
+        <v>0.5152671755725191</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01255230125523013</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1506276150627615</v>
+        <v>0.1488549618320611</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1129707112970711</v>
+        <v>0.1068702290076336</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.015625</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C3">
-        <v>0.0390625</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7109375</v>
+        <v>0.696551724137931</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.203125</v>
+        <v>0.2137931034482759</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4545454545454545</v>
+        <v>0.4565217391304348</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.015</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="E6">
-        <v>0.005</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F6">
-        <v>0.05</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.205</v>
+        <v>0.2026431718061674</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.155</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="R6">
-        <v>0.08</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="S6">
-        <v>0.42</v>
+        <v>0.4096916299559472</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07482993197278912</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01360544217687075</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06802721088435375</v>
+        <v>0.06547619047619048</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1224489795918367</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02040816326530612</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="R7">
-        <v>0.1428571428571428</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="S7">
-        <v>0.3673469387755102</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08788598574821853</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01900237529691211</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="E8">
-        <v>0.002375296912114014</v>
+        <v>0.002127659574468085</v>
       </c>
       <c r="F8">
-        <v>0.05700712589073634</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09263657957244656</v>
+        <v>0.08723404255319149</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02612826603325416</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1995249406175772</v>
+        <v>0.2021276595744681</v>
       </c>
       <c r="R8">
-        <v>0.07363420427553444</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="S8">
-        <v>0.4418052256532066</v>
+        <v>0.4404255319148936</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1236559139784946</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01612903225806452</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E9">
-        <v>0.005376344086021506</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F9">
-        <v>0.07526881720430108</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1182795698924731</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02150537634408602</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1935483870967742</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="R9">
-        <v>0.07526881720430108</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="S9">
-        <v>0.3709677419354839</v>
+        <v>0.3952380952380952</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1011787819253438</v>
+        <v>0.09595070422535211</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02652259332023576</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="E10">
-        <v>0.001964636542239686</v>
+        <v>0.00176056338028169</v>
       </c>
       <c r="F10">
-        <v>0.08153241650294696</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08447937131630648</v>
+        <v>0.09066901408450705</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02455795677799607</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2170923379174853</v>
+        <v>0.2121478873239437</v>
       </c>
       <c r="R10">
-        <v>0.08742632612966601</v>
+        <v>0.08714788732394366</v>
       </c>
       <c r="S10">
-        <v>0.37524557956778</v>
+        <v>0.3785211267605634</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1798245614035088</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1008771929824561</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="K11">
-        <v>0.2412280701754386</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="L11">
-        <v>0.4649122807017544</v>
+        <v>0.4692307692307692</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0131578947368421</v>
+        <v>0.01153846153846154</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7222222222222222</v>
+        <v>0.7235772357723578</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2520325203252032</v>
       </c>
       <c r="K12">
-        <v>0.009259259259259259</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="L12">
-        <v>0.01851851851851852</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6444444444444445</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2888888888888889</v>
+        <v>0.28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01595744680851064</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1861702127659574</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="I15">
-        <v>0.05319148936170213</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="J15">
-        <v>0.3191489361702128</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.0797872340425532</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01063829787234043</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03191489361702127</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3031914893617021</v>
+        <v>0.3098591549295774</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02054794520547945</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1780821917808219</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I16">
-        <v>0.1232876712328767</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="J16">
-        <v>0.3835616438356164</v>
+        <v>0.3647798742138365</v>
       </c>
       <c r="K16">
-        <v>0.1027397260273973</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="N16">
-        <v>0.00684931506849315</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="O16">
-        <v>0.07534246575342465</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0958904109589041</v>
+        <v>0.1069182389937107</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03007518796992481</v>
+        <v>0.02708803611738149</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2005012531328321</v>
+        <v>0.1918735891647856</v>
       </c>
       <c r="I17">
-        <v>0.112781954887218</v>
+        <v>0.1151241534988713</v>
       </c>
       <c r="J17">
-        <v>0.3909774436090225</v>
+        <v>0.3837471783295711</v>
       </c>
       <c r="K17">
-        <v>0.05263157894736842</v>
+        <v>0.06094808126410835</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01503759398496241</v>
+        <v>0.01580135440180587</v>
       </c>
       <c r="N17">
-        <v>0.007518796992481203</v>
+        <v>0.006772009029345372</v>
       </c>
       <c r="O17">
-        <v>0.05513784461152882</v>
+        <v>0.06094808126410835</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1353383458646616</v>
+        <v>0.1376975169300226</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01169590643274854</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1929824561403509</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.1345029239766082</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J18">
-        <v>0.3684210526315789</v>
+        <v>0.3736842105263158</v>
       </c>
       <c r="K18">
-        <v>0.07602339181286549</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02339181286549707</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08771929824561403</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01154529307282416</v>
+        <v>0.01339637509850276</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2211367673179396</v>
+        <v>0.22301024428684</v>
       </c>
       <c r="I19">
-        <v>0.08081705150976909</v>
+        <v>0.08274231678486997</v>
       </c>
       <c r="J19">
-        <v>0.3774422735346359</v>
+        <v>0.3743104806934594</v>
       </c>
       <c r="K19">
-        <v>0.09502664298401421</v>
+        <v>0.09456264775413711</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02841918294849023</v>
+        <v>0.02758077226162333</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05772646536412078</v>
+        <v>0.05752561071710008</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.127886323268206</v>
+        <v>0.1268715524034673</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fresno St._A.xlsx
+++ b/team_specific_matrix/Fresno St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2175572519083969</v>
+        <v>0.2169117647058824</v>
       </c>
       <c r="C2">
-        <v>0.5152671755725191</v>
+        <v>0.5183823529411765</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01145038167938931</v>
+        <v>0.01102941176470588</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1488549618320611</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1068702290076336</v>
+        <v>0.1066176470588235</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01379310344827586</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C3">
-        <v>0.04827586206896552</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02758620689655172</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.696551724137931</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2137931034482759</v>
+        <v>0.2039473684210526</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5434782608695652</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4565217391304348</v>
+        <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06167400881057269</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.013215859030837</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E6">
-        <v>0.004405286343612335</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="F6">
-        <v>0.04405286343612335</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2026431718061674</v>
+        <v>0.2008733624454148</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02643171806167401</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1629955947136564</v>
+        <v>0.1615720524017467</v>
       </c>
       <c r="R6">
-        <v>0.07488986784140969</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S6">
-        <v>0.4096916299559472</v>
+        <v>0.4148471615720524</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07738095238095238</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06547619047619048</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1904761904761905</v>
+        <v>0.1839080459770115</v>
       </c>
       <c r="R7">
-        <v>0.130952380952381</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="S7">
-        <v>0.375</v>
+        <v>0.3735632183908046</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08936170212765958</v>
+        <v>0.08997955010224949</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01702127659574468</v>
+        <v>0.016359918200409</v>
       </c>
       <c r="E8">
-        <v>0.002127659574468085</v>
+        <v>0.002044989775051125</v>
       </c>
       <c r="F8">
-        <v>0.05957446808510639</v>
+        <v>0.05930470347648262</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08723404255319149</v>
+        <v>0.08793456032719836</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02553191489361702</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2021276595744681</v>
+        <v>0.2004089979550102</v>
       </c>
       <c r="R8">
-        <v>0.07659574468085106</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="S8">
-        <v>0.4404255319148936</v>
+        <v>0.4396728016359918</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.119047619047619</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="E9">
-        <v>0.004761904761904762</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F9">
-        <v>0.0761904761904762</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1095238095238095</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02380952380952381</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1809523809523809</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="R9">
-        <v>0.0761904761904762</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="S9">
-        <v>0.3952380952380952</v>
+        <v>0.4063926940639269</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09595070422535211</v>
+        <v>0.0977891156462585</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02464788732394366</v>
+        <v>0.02465986394557823</v>
       </c>
       <c r="E10">
-        <v>0.00176056338028169</v>
+        <v>0.001700680272108843</v>
       </c>
       <c r="F10">
-        <v>0.08450704225352113</v>
+        <v>0.08248299319727891</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09066901408450705</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02464788732394366</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2121478873239437</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="R10">
-        <v>0.08714788732394366</v>
+        <v>0.0858843537414966</v>
       </c>
       <c r="S10">
-        <v>0.3785211267605634</v>
+        <v>0.3852040816326531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1846153846153846</v>
+        <v>0.1879699248120301</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09615384615384616</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="K11">
-        <v>0.2384615384615385</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L11">
-        <v>0.4692307692307692</v>
+        <v>0.4699248120300752</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01153846153846154</v>
+        <v>0.0112781954887218</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7235772357723578</v>
+        <v>0.7244094488188977</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2520325203252032</v>
+        <v>0.2440944881889764</v>
       </c>
       <c r="K12">
-        <v>0.008130081300813009</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="L12">
-        <v>0.01626016260162602</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.007874015748031496</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.28</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01408450704225352</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1690140845070423</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I15">
-        <v>0.04694835680751173</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="K15">
-        <v>0.07981220657276995</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01408450704225352</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03286384976525822</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3098591549295774</v>
+        <v>0.3063063063063063</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01886792452830189</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1886792452830189</v>
+        <v>0.1856287425149701</v>
       </c>
       <c r="I16">
-        <v>0.1257861635220126</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="J16">
-        <v>0.3647798742138365</v>
+        <v>0.3712574850299401</v>
       </c>
       <c r="K16">
-        <v>0.1006289308176101</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01257861635220126</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N16">
-        <v>0.006289308176100629</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="O16">
-        <v>0.07547169811320754</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1069182389937107</v>
+        <v>0.1137724550898204</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02708803611738149</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1918735891647856</v>
+        <v>0.1880530973451327</v>
       </c>
       <c r="I17">
-        <v>0.1151241534988713</v>
+        <v>0.1172566371681416</v>
       </c>
       <c r="J17">
-        <v>0.3837471783295711</v>
+        <v>0.3849557522123894</v>
       </c>
       <c r="K17">
-        <v>0.06094808126410835</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01580135440180587</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N17">
-        <v>0.006772009029345372</v>
+        <v>0.00663716814159292</v>
       </c>
       <c r="O17">
-        <v>0.06094808126410835</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1376975169300226</v>
+        <v>0.1393805309734513</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01052631578947368</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.1928934010152284</v>
       </c>
       <c r="I18">
-        <v>0.131578947368421</v>
+        <v>0.1370558375634518</v>
       </c>
       <c r="J18">
-        <v>0.3736842105263158</v>
+        <v>0.3807106598984771</v>
       </c>
       <c r="K18">
-        <v>0.08421052631578947</v>
+        <v>0.08121827411167512</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02105263157894737</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07894736842105263</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.1015228426395939</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01339637509850276</v>
+        <v>0.01278195488721805</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.22301024428684</v>
+        <v>0.2270676691729323</v>
       </c>
       <c r="I19">
-        <v>0.08274231678486997</v>
+        <v>0.08195488721804511</v>
       </c>
       <c r="J19">
-        <v>0.3743104806934594</v>
+        <v>0.3699248120300752</v>
       </c>
       <c r="K19">
-        <v>0.09456264775413711</v>
+        <v>0.09323308270676692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02758077226162333</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05752561071710008</v>
+        <v>0.05864661654135338</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1268715524034673</v>
+        <v>0.1300751879699248</v>
       </c>
     </row>
   </sheetData>
